--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF1862-5A8F-443B-839B-10C4787DFEAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8EB60-665C-4675-83DE-9DF5C995C2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="LotTrack_NoTrack" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Test Provar-Serial</t>
   </si>
   <si>
-    <t>Provar-118,Provar-119</t>
-  </si>
-  <si>
     <t>Lot No</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>P-5V1I</t>
+  </si>
+  <si>
+    <t>Provar-120,Provar-121</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -679,31 +679,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -711,31 +711,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>777</v>
       </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -743,31 +743,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>777</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -775,31 +775,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -807,31 +807,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -839,31 +839,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -871,31 +871,31 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -903,31 +903,31 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -935,31 +935,31 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -967,31 +967,31 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -999,63 +999,63 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1069,19 +1069,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1092,22 +1092,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1147,19 +1147,19 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,19 +1199,19 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1251,19 +1251,19 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1274,22 +1274,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1300,22 +1300,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1329,19 +1329,19 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1352,22 +1352,22 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1378,22 +1378,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1407,19 +1407,19 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1493,19 +1493,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>4.6546000000000003</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1516,22 +1516,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>1.2465999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1571,19 +1571,19 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>2.5656560000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1597,19 +1597,19 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>7.6577999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1623,19 +1623,19 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>6.5465999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1655,13 +1655,13 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>5.5465999999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1675,19 +1675,19 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9">
         <v>4.6546000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1698,22 +1698,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>1.6577999999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1724,22 +1724,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>1.5466</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1753,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>6.54</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1776,22 +1776,22 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1802,22 +1802,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1831,19 +1831,19 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>3.4540000000000002</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1922,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8EB60-665C-4675-83DE-9DF5C995C2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D0A60-3B1D-4A57-80DE-A9E452269690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="73">
   <si>
     <t>Item Name</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Quantity To Transfer</t>
-  </si>
-  <si>
-    <t>P0303</t>
   </si>
   <si>
     <t>MS-Lot track item (Lot track item)</t>
@@ -653,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -671,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -679,31 +676,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -711,31 +708,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>777</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -743,31 +740,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>777</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -775,31 +772,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -807,31 +804,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -839,31 +836,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -871,31 +868,31 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -903,31 +900,31 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -935,31 +932,31 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -967,31 +964,31 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -999,63 +996,63 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1063,25 +1060,25 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1089,25 +1086,25 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1115,25 +1112,25 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1906</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1141,25 +1138,25 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1167,25 +1164,25 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,25 +1190,25 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1219,25 +1216,25 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1906</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1245,25 +1242,25 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1271,25 +1268,25 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1297,25 +1294,25 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1323,25 +1320,25 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1349,25 +1346,25 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1375,25 +1372,25 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,25 +1398,25 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1461,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1479,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1487,25 +1484,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>4.6546000000000003</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1513,25 +1510,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1539,25 +1536,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1906</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>1.2465999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1565,25 +1562,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>2.5656560000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1591,25 +1588,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>7.6577999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1617,25 +1614,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>6.5465999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1643,25 +1640,25 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1906</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>5.5465999999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,25 +1666,25 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4.6546000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1695,25 +1692,25 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>1.6577999999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,25 +1718,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>1.5466</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1747,25 +1744,25 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <v>6.54</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1773,25 +1770,25 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1799,25 +1796,25 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1825,25 +1822,25 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>3.4540000000000002</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1853,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1884,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1902,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1913,25 +1910,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2007</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D0A60-3B1D-4A57-80DE-A9E452269690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5E708-C5FC-44C5-895E-D52AF7C16268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="74">
   <si>
     <t>Item Name</t>
   </si>
@@ -254,7 +254,10 @@
     <t>P-5V1I</t>
   </si>
   <si>
-    <t>Provar-120,Provar-121</t>
+    <t>P-CUF3</t>
+  </si>
+  <si>
+    <t>Provar-169,Provar-170,Provar-171</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,7 +1856,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,16 +1922,20 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5E708-C5FC-44C5-895E-D52AF7C16268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098672FD-49B2-4E5C-AF84-83074E1CF33C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="LotTrack_NoTrack" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Serial Track" sheetId="2" r:id="rId3"/>
+    <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
+    <sheet name="RSTK-8172-New loc" sheetId="3" r:id="rId2"/>
+    <sheet name="RSTK-8173-SRL-Existing loc" sheetId="2" r:id="rId3"/>
+    <sheet name="RSTK-8174-SRL-New_loc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
   <si>
     <t>Item Name</t>
   </si>
@@ -258,6 +259,12 @@
   </si>
   <si>
     <t>Provar-169,Provar-170,Provar-171</t>
+  </si>
+  <si>
+    <t>Test Provar-Serial New Loc</t>
+  </si>
+  <si>
+    <t>Provar-126,Provar-127</t>
   </si>
 </sst>
 </file>
@@ -626,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24FADA-6F79-48D0-B3D1-9B04A7EF4C89}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J15"/>
+      <selection activeCell="F11" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,8 +1451,8 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1487,25 +1494,28 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>777</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>4.6546000000000003</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1513,25 +1523,28 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>777</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1539,25 +1552,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>1906</v>
+        <v>777</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>1.2465999999999999</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1565,25 +1581,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>777</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5">
-        <v>2.5656560000000002</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1591,25 +1610,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>777</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>7.6577999999999999</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1617,25 +1639,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I7">
-        <v>6.5465999999999998</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1643,25 +1668,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>1906</v>
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>5.5465999999999998</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,25 +1697,28 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>4.6546000000000003</v>
+        <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1695,25 +1726,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I10">
-        <v>1.6577999999999999</v>
+        <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,25 +1755,28 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I11">
-        <v>1.5466</v>
+        <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1747,51 +1784,57 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I12">
-        <v>6.54</v>
+        <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1802,22 +1845,22 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1828,21 +1871,333 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>1906</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>1.2465999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>2.5656560000000002</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>7.6577999999999999</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>6.5465999999999998</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1906</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>5.5465999999999998</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>4.6546000000000003</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>1.6577999999999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="I15">
+      <c r="I23">
+        <v>1.5466</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>6.54</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>4.6546000000000003</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27">
         <v>3.4540000000000002</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1855,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,4 +2293,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>2007</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098672FD-49B2-4E5C-AF84-83074E1CF33C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F0FDF-9B14-4DF4-96E6-BF89386FC67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="95">
   <si>
     <t>Item Name</t>
   </si>
@@ -123,15 +123,9 @@
     <t>P-IN1</t>
   </si>
   <si>
-    <t>P-NN1</t>
-  </si>
-  <si>
     <t>Loc4 (No picking indicator OH)</t>
   </si>
   <si>
-    <t>P-OH1</t>
-  </si>
-  <si>
     <t>OH to BKFL</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>OH to OH</t>
   </si>
   <si>
-    <t>MFG-0526-1</t>
-  </si>
-  <si>
-    <t>P-OH2</t>
-  </si>
-  <si>
     <t>OHv (OH vendor)</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>con2 (Consigned2)</t>
   </si>
   <si>
-    <t>Con2</t>
-  </si>
-  <si>
     <t>L-Con1</t>
   </si>
   <si>
@@ -222,9 +207,6 @@
     <t>Cons</t>
   </si>
   <si>
-    <t>Pro-23DA</t>
-  </si>
-  <si>
     <t>NN to NN</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>P2403</t>
   </si>
   <si>
-    <t>P-3QT8</t>
-  </si>
-  <si>
     <t>P-QMEQ</t>
   </si>
   <si>
@@ -258,13 +237,91 @@
     <t>P-CUF3</t>
   </si>
   <si>
-    <t>Provar-169,Provar-170,Provar-171</t>
-  </si>
-  <si>
     <t>Test Provar-Serial New Loc</t>
   </si>
   <si>
-    <t>Provar-126,Provar-127</t>
+    <t>P-C061</t>
+  </si>
+  <si>
+    <t>P-X4BI</t>
+  </si>
+  <si>
+    <t>P-G7O0</t>
+  </si>
+  <si>
+    <t>P-U9E4</t>
+  </si>
+  <si>
+    <t>P-DGW0</t>
+  </si>
+  <si>
+    <t>P-WFWU</t>
+  </si>
+  <si>
+    <t>P-JD14</t>
+  </si>
+  <si>
+    <t>P-JUHL</t>
+  </si>
+  <si>
+    <t>Pro-Z1KO</t>
+  </si>
+  <si>
+    <t>P-IV7V</t>
+  </si>
+  <si>
+    <t>P-LXDL</t>
+  </si>
+  <si>
+    <t>P-YPBK</t>
+  </si>
+  <si>
+    <t>P-96SN</t>
+  </si>
+  <si>
+    <t>P-XU9P</t>
+  </si>
+  <si>
+    <t>P-8ICX</t>
+  </si>
+  <si>
+    <t>P-T3IL</t>
+  </si>
+  <si>
+    <t>P-I15Z</t>
+  </si>
+  <si>
+    <t>P-BJTY</t>
+  </si>
+  <si>
+    <t>P-MJ3E</t>
+  </si>
+  <si>
+    <t>P-19ZX</t>
+  </si>
+  <si>
+    <t>P-ACUF</t>
+  </si>
+  <si>
+    <t>P-DGO9</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>LT5</t>
+  </si>
+  <si>
+    <t>Pro-1</t>
+  </si>
+  <si>
+    <t>BKFL-1</t>
+  </si>
+  <si>
+    <t>Provar-173,Provar-174,Provar-175</t>
+  </si>
+  <si>
+    <t>Provar-201,Provar-202</t>
   </si>
 </sst>
 </file>
@@ -288,20 +345,26 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,13 +372,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEEEEEE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -633,15 +717,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
@@ -689,9 +773,9 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
@@ -704,13 +788,13 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -721,9 +805,9 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2">
         <v>777</v>
       </c>
       <c r="E3" t="s">
@@ -736,13 +820,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -753,9 +837,9 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
         <v>777</v>
       </c>
       <c r="E4" t="s">
@@ -774,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -785,9 +869,9 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2">
         <v>777</v>
       </c>
       <c r="E5" t="s">
@@ -797,16 +881,16 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -817,9 +901,9 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
         <v>777</v>
       </c>
       <c r="E6" t="s">
@@ -829,16 +913,16 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -849,9 +933,9 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
@@ -861,16 +945,16 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -881,9 +965,9 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
@@ -893,16 +977,16 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -913,9 +997,9 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
@@ -928,13 +1012,13 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -945,13 +1029,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>1003</v>
@@ -960,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -977,28 +1061,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1011,26 +1095,26 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1041,13 +1125,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1056,13 +1140,13 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1076,19 +1160,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1099,22 +1186,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1127,7 +1217,7 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1906</v>
       </c>
       <c r="F16" t="s">
@@ -1136,11 +1226,14 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
       <c r="I16">
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,8 +1246,8 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>66</v>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1162,11 +1255,14 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1179,8 +1275,8 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>66</v>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1188,11 +1284,14 @@
       <c r="G18" t="s">
         <v>26</v>
       </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1205,8 +1304,8 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1214,11 +1313,14 @@
       <c r="G19" t="s">
         <v>19</v>
       </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,7 +1333,7 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1906</v>
       </c>
       <c r="F20" t="s">
@@ -1240,11 +1342,14 @@
       <c r="G20" t="s">
         <v>19</v>
       </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1257,20 +1362,23 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1281,22 +1389,25 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1307,22 +1418,25 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1335,8 +1449,8 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>68</v>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1344,11 +1458,14 @@
       <c r="G24" t="s">
         <v>19</v>
       </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1359,10 +1476,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1370,11 +1487,14 @@
       <c r="G25" t="s">
         <v>19</v>
       </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1385,10 +1505,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1396,11 +1516,14 @@
       <c r="G26" t="s">
         <v>19</v>
       </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1413,20 +1536,23 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1566,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:J27"/>
+      <selection activeCell="A2" sqref="A2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1578,7 @@
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1497,9 +1623,9 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
@@ -1515,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1526,9 +1652,9 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2">
         <v>777</v>
       </c>
       <c r="E3" t="s">
@@ -1544,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1555,9 +1681,9 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
         <v>777</v>
       </c>
       <c r="E4" t="s">
@@ -1573,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1584,9 +1710,9 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2">
         <v>777</v>
       </c>
       <c r="E5" t="s">
@@ -1596,13 +1722,13 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1613,9 +1739,9 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
         <v>777</v>
       </c>
       <c r="E6" t="s">
@@ -1625,13 +1751,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1642,9 +1768,9 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
@@ -1654,13 +1780,13 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1671,9 +1797,9 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
@@ -1683,13 +1809,13 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1700,9 +1826,9 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
@@ -1718,7 +1844,7 @@
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1729,13 +1855,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>1003</v>
@@ -1747,7 +1873,7 @@
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1758,25 +1884,25 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1789,23 +1915,23 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1816,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1834,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1848,19 +1974,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1871,22 +1997,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1899,7 +2025,7 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1906</v>
       </c>
       <c r="F16" t="s">
@@ -1912,7 +2038,7 @@
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,8 +2051,8 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>66</v>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1938,7 +2064,7 @@
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1951,8 +2077,8 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>66</v>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1964,7 +2090,7 @@
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1977,8 +2103,8 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1990,7 +2116,7 @@
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2003,7 +2129,7 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1906</v>
       </c>
       <c r="F20" t="s">
@@ -2016,7 +2142,7 @@
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2029,20 +2155,20 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2053,22 +2179,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2079,22 +2205,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,8 +2233,8 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>68</v>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -2120,7 +2246,7 @@
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2131,10 +2257,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -2146,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2157,10 +2283,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -2172,7 +2298,7 @@
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2185,20 +2311,20 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2337,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:J2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -2297,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,11 +2439,10 @@
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2343,13 +2468,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2366,16 +2488,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F0FDF-9B14-4DF4-96E6-BF89386FC67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1065F-C505-4FA0-ABB0-B822C90C1B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="93">
   <si>
     <t>Item Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Serial Numbers</t>
-  </si>
-  <si>
     <t>10 (Denver)</t>
   </si>
   <si>
@@ -318,10 +315,7 @@
     <t>BKFL-1</t>
   </si>
   <si>
-    <t>Provar-173,Provar-174,Provar-175</t>
-  </si>
-  <si>
-    <t>Provar-201,Provar-202</t>
+    <t>Total Serials To Be Transferred</t>
   </si>
 </sst>
 </file>
@@ -744,815 +738,815 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>777</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>777</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
         <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
         <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>1906</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>1906</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1594,737 +1588,737 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>777</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>777</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
         <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>1906</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>1906</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2336,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,7 +2342,7 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -2365,54 +2359,54 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2007</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,48 +2447,48 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2007</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1065F-C505-4FA0-ABB0-B822C90C1B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D98D8-2886-4DC4-BA1E-BF9DF1056782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
   <si>
     <t>Item Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>OHv (OH vendor)</t>
   </si>
   <si>
-    <t>P-Ohv</t>
-  </si>
-  <si>
     <t>Oh to Ohv</t>
   </si>
   <si>
@@ -246,18 +243,12 @@
     <t>P-G7O0</t>
   </si>
   <si>
-    <t>P-U9E4</t>
-  </si>
-  <si>
     <t>P-DGW0</t>
   </si>
   <si>
     <t>P-WFWU</t>
   </si>
   <si>
-    <t>P-JD14</t>
-  </si>
-  <si>
     <t>P-JUHL</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>P-T3IL</t>
   </si>
   <si>
-    <t>P-I15Z</t>
-  </si>
-  <si>
     <t>P-BJTY</t>
   </si>
   <si>
@@ -316,6 +304,9 @@
   </si>
   <si>
     <t>Total Serials To Be Transferred</t>
+  </si>
+  <si>
+    <t>P-vendor</t>
   </si>
 </sst>
 </file>
@@ -709,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,31 +755,28 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2">
-        <v>777</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -796,31 +784,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>777</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>1906</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1.2465999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -828,31 +813,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2">
-        <v>777</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>2.5656560000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -860,31 +842,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2">
-        <v>777</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7.6577999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -892,31 +871,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2">
-        <v>777</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I6">
-        <v>75</v>
+        <v>6.5465999999999998</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -924,31 +900,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1906</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>5.5465999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -956,31 +929,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>4.5490000000000004</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -988,31 +958,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I9">
-        <v>3.3544999999999998</v>
+        <v>1.6577999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1020,31 +987,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>1003</v>
+      <c r="F10" t="s">
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I10">
-        <v>11.656478999999999</v>
+        <v>1.5466</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,31 +1016,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I11">
-        <v>2.6558999999999999</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1084,63 +1045,57 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>1005</v>
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>30.545999999999999</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,28 +1103,31 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="2">
+        <v>777</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I14">
-        <v>4.6546000000000003</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1177,28 +1135,31 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="2">
+        <v>777</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1206,28 +1167,31 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
-        <v>1906</v>
+        <v>777</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I16">
-        <v>1.2465999999999999</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1235,28 +1199,31 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="2">
+        <v>777</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>2.5656560000000002</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1264,28 +1231,31 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="2">
+        <v>777</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I18">
-        <v>7.6577999999999999</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1293,28 +1263,31 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I19">
-        <v>6.5465999999999998</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1322,28 +1295,31 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1906</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I20">
-        <v>5.5465999999999998</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1351,28 +1327,31 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>1005</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I21">
-        <v>4.6546000000000003</v>
+        <v>11.656478999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1380,57 +1359,63 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I22">
-        <v>1.6577999999999999</v>
+        <v>2.6558999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1.5466</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1444,22 +1429,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>4.6546000000000003</v>
+      </c>
+      <c r="J24" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24">
-        <v>6.54</v>
-      </c>
-      <c r="J24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1467,87 +1452,35 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>1005</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>30.545999999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26">
-        <v>4.6546000000000003</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>777</v>
@@ -1646,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>777</v>
@@ -1675,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>777</v>
@@ -1704,7 +1637,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <v>777</v>
@@ -1733,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>777</v>
@@ -1751,7 +1684,7 @@
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1762,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -1780,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1791,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1809,7 +1742,7 @@
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1820,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
@@ -1838,7 +1771,7 @@
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1849,13 +1782,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>1003</v>
@@ -1867,7 +1800,7 @@
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1878,25 +1811,25 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1910,10 +1843,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
       <c r="F12">
         <v>1005</v>
@@ -1925,7 +1858,7 @@
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1936,13 +1869,13 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1954,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1968,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1980,7 +1913,7 @@
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1991,22 +1924,22 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2032,7 +1965,7 @@
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2046,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -2072,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -2098,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -2136,7 +2069,7 @@
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2150,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -2162,7 +2095,7 @@
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2173,10 +2106,10 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -2188,7 +2121,7 @@
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2199,10 +2132,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -2214,7 +2147,7 @@
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2228,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2240,7 +2173,7 @@
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2251,10 +2184,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -2266,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2277,10 +2210,10 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2292,7 +2225,7 @@
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2306,7 +2239,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2330,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2368,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2403,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -2420,7 +2353,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2488,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D98D8-2886-4DC4-BA1E-BF9DF1056782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0638E7-83B0-4277-B676-6C10571DDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Item Name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>OH (On Hand Loc)</t>
   </si>
   <si>
-    <t>Test Provar-Serial</t>
-  </si>
-  <si>
     <t>Lot No</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>P-5V1I</t>
   </si>
   <si>
-    <t>P-CUF3</t>
-  </si>
-  <si>
     <t>Test Provar-Serial New Loc</t>
   </si>
   <si>
@@ -307,13 +301,88 @@
   </si>
   <si>
     <t>P-vendor</t>
+  </si>
+  <si>
+    <t>STK1</t>
+  </si>
+  <si>
+    <t>Pro-101</t>
+  </si>
+  <si>
+    <t>multidiv Serial track</t>
+  </si>
+  <si>
+    <t>777 (BC Site)</t>
+  </si>
+  <si>
+    <t>100 ()</t>
+  </si>
+  <si>
+    <t>LT-1</t>
+  </si>
+  <si>
+    <t>P-YPPV</t>
+  </si>
+  <si>
+    <t>P-XELQ</t>
+  </si>
+  <si>
+    <t>P-SY32</t>
+  </si>
+  <si>
+    <t>P-UNB4</t>
+  </si>
+  <si>
+    <t>P-CHNA</t>
+  </si>
+  <si>
+    <t>P-KW6A</t>
+  </si>
+  <si>
+    <t>P-ZKWM</t>
+  </si>
+  <si>
+    <t>P-LLB2</t>
+  </si>
+  <si>
+    <t>P-EBLF</t>
+  </si>
+  <si>
+    <t>P-LUPK</t>
+  </si>
+  <si>
+    <t>P-O36A</t>
+  </si>
+  <si>
+    <t>P-VYLX</t>
+  </si>
+  <si>
+    <t>P-TYAX</t>
+  </si>
+  <si>
+    <t>P-4R78</t>
+  </si>
+  <si>
+    <t>P-0HFR</t>
+  </si>
+  <si>
+    <t>P-2OI6</t>
+  </si>
+  <si>
+    <t>P-6PSJ</t>
+  </si>
+  <si>
+    <t>P-YJO6</t>
+  </si>
+  <si>
+    <t>P-UUOX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +402,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -702,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,11 +786,12 @@
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -732,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -758,25 +834,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -799,13 +875,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <v>1.2465999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -819,22 +895,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>2.5656560000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -848,22 +924,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>7.6577999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -877,22 +953,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>6.5465999999999998</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -912,16 +988,16 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>5.5465999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -935,22 +1011,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>4.6546000000000003</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -961,25 +1037,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>1.6577999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -990,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>1.5466</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1019,25 +1095,25 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,25 +1124,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>4.6546000000000003</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>3.4540000000000002</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1103,31 +1179,28 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2">
-        <v>777</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1135,28 +1208,28 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <v>777</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>30</v>
@@ -1167,31 +1240,31 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>777</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,31 +1272,31 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>777</v>
       </c>
       <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,31 +1304,31 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2">
         <v>777</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1263,31 +1336,31 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="2">
+        <v>777</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1295,28 +1368,28 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I20">
-        <v>4.5490000000000004</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>44</v>
@@ -1327,31 +1400,31 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21">
-        <v>1005</v>
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21">
-        <v>11.656478999999999</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1359,28 +1432,28 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>1005</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22">
-        <v>2.6558999999999999</v>
+        <v>11.656478999999999</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
@@ -1388,63 +1461,66 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2.6558999999999999</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>4.6546000000000003</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1452,31 +1528,31 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
         <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
       </c>
       <c r="F25">
         <v>1005</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25">
         <v>30.545999999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1493,16 +1569,16 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F28"/>
+      <selection activeCell="G2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1524,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1547,28 +1623,28 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>777</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1576,28 +1652,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>777</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1605,28 +1681,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>777</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1634,28 +1710,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1663,28 +1739,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1692,28 +1768,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,28 +1797,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>4.5490000000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1750,28 +1826,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>3.3544999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,28 +1855,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1003</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>11.656478999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1808,28 +1884,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
       </c>
       <c r="I11">
         <v>2.6558999999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1837,57 +1913,57 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
       <c r="F12">
         <v>1005</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>30.545999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1901,19 +1977,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>4.6546000000000003</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1924,22 +2000,22 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1965,7 +2041,7 @@
         <v>1.2465999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1979,19 +2055,19 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17">
         <v>2.5656560000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2005,19 +2081,19 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18">
         <v>7.6577999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2031,19 +2107,19 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <v>6.5465999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2063,13 +2139,13 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <v>5.5465999999999998</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2083,19 +2159,19 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>4.6546000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2106,22 +2182,22 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>1.6577999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2132,22 +2208,22 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23">
         <v>1.5466</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2161,19 +2237,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <v>6.54</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2184,22 +2260,22 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2210,22 +2286,22 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <v>4.6546000000000003</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2239,19 +2315,19 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>3.4540000000000002</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,10 +2351,10 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2295,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2315,31 +2391,636 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <v>1001</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D14">
         <v>2007</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2350,22 +3031,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2383,13 +3064,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2403,28 +3084,546 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>2007</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>1001</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>1001</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0638E7-83B0-4277-B676-6C10571DDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE1886-5D10-4994-B931-BC89E71CF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1867,7 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE1886-5D10-4994-B931-BC89E71CF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43448FA0-B5EB-4BA4-BCB3-8B6D31D75F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92674C2-EC31-4188-AAB2-776ED977C9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26F126C-4961-4828-8EBC-D46C6698DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="114">
   <si>
     <t>Item Name</t>
   </si>
@@ -369,12 +369,6 @@
     <t>P-6PSJ</t>
   </si>
   <si>
-    <t>P-YJO6</t>
-  </si>
-  <si>
-    <t>P-UUOX</t>
-  </si>
-  <si>
     <t>Transaction Date</t>
   </si>
   <si>
@@ -382,6 +376,9 @@
   </si>
   <si>
     <t>con to con backdated</t>
+  </si>
+  <si>
+    <t>C101 (Consigned)</t>
   </si>
 </sst>
 </file>
@@ -793,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -849,9 +846,6 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>44353</v>
-      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -859,57 +853,63 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>2.6558999999999999</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>777</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1906</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3">
-        <v>1.2465999999999999</v>
-      </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,25 +920,25 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1906</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4">
-        <v>2.5656560000000002</v>
+        <v>1.2465999999999999</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5">
-        <v>7.6577999999999999</v>
+        <v>2.5656560000000002</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -987,16 +987,16 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6">
-        <v>6.5465999999999998</v>
+        <v>7.6577999999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1906</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1019,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7">
-        <v>5.5465999999999998</v>
+        <v>6.5465999999999998</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1036,25 +1036,25 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1906</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8">
-        <v>4.6546000000000003</v>
+        <v>5.5465999999999998</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1065,10 +1065,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1077,13 +1077,13 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>1.6577999999999999</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10">
-        <v>1.5466</v>
+        <v>1.6577999999999999</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1123,25 +1123,25 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1.5466</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1164,13 +1164,13 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12">
-        <v>4.6546000000000003</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1181,25 +1181,25 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13">
-        <v>3.4540000000000002</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1210,25 +1210,25 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J14">
-        <v>4.6546000000000003</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1236,31 +1236,28 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2">
-        <v>777</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1283,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -1315,16 +1312,16 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -1347,16 +1344,16 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -1367,10 +1364,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>777</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -1385,10 +1382,10 @@
         <v>64</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -1411,16 +1408,16 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20">
-        <v>4.5490000000000004</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -1431,28 +1428,28 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>1005</v>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21">
-        <v>11.656478999999999</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -1463,28 +1460,28 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>1005</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22">
-        <v>2.6558999999999999</v>
+        <v>11.656478999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
@@ -1550,9 +1547,6 @@
       <c r="K24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24FADA-6F79-48D0-B3D1-9B04A7EF4C89}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1638,13 +1632,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1926,25 +1920,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>1005</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>2.6558999999999999</v>
+        <v>30.545999999999999</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1953,58 +1947,52 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>1005</v>
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>31</v>
       </c>
       <c r="J13">
-        <v>30.545999999999999</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1906</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>1.2465999999999999</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2016,22 +2004,22 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>4.6546000000000003</v>
+        <v>2.5656560000000002</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2043,22 +2031,22 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1906</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>1.2465999999999999</v>
+        <v>6.5465999999999998</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,22 +2058,22 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1906</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>2.5656560000000002</v>
+        <v>5.5465999999999998</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2097,22 +2085,22 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J18">
-        <v>7.6577999999999999</v>
+        <v>1.6577999999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2124,22 +2112,22 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J19">
-        <v>6.5465999999999998</v>
+        <v>1.5466</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2151,10 +2139,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1906</v>
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2163,14 +2151,13 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <v>5.5465999999999998</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -2178,26 +2165,25 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J21">
         <v>4.6546000000000003</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -2205,154 +2191,21 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J22">
-        <v>1.6577999999999999</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23">
-        <v>1.5466</v>
-      </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>6.54</v>
-      </c>
-      <c r="K24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26">
-        <v>4.6546000000000003</v>
-      </c>
-      <c r="K26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="K27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2363,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,7 +2239,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2652,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -2661,13 +2514,13 @@
         <v>13</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2679,7 +2532,7 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
@@ -2688,13 +2541,13 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2706,7 +2559,7 @@
         <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -2718,64 +2571,67 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
-        <v>87</v>
+      <c r="D13">
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>1001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14">
-        <v>1001</v>
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>2007</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2787,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>2007</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2802,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2829,13 +2685,13 @@
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2859,13 +2715,13 @@
         <v>13</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2877,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -2889,13 +2745,13 @@
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2919,13 +2775,13 @@
         <v>13</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2937,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
@@ -2952,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2967,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -2979,13 +2835,13 @@
         <v>13</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2997,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
@@ -3009,77 +2865,14 @@
         <v>13</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3089,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3111,7 +2904,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3335,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3706,9 +3499,6 @@
       <c r="I23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/templates/LocationToLocation.xlsx
+++ b/templates/LocationToLocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26F126C-4961-4828-8EBC-D46C6698DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0C1D8-2848-4A11-90C9-D0672863F7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="114">
   <si>
     <t>Item Name</t>
   </si>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24FADA-6F79-48D0-B3D1-9B04A7EF4C89}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A20:XFD20"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2058,22 +2058,22 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1906</v>
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J17">
-        <v>5.5465999999999998</v>
+        <v>1.6577999999999999</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2094,13 +2094,13 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18">
-        <v>1.6577999999999999</v>
+        <v>1.5466</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,26 +2112,25 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>1.5466</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -2139,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2151,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>4.6546000000000003</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2165,47 +2164,21 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J21">
-        <v>4.6546000000000003</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="K22" t="s">
         <v>30</v>
       </c>
     </row>
